--- a/Excel - Project 09.xlsx
+++ b/Excel - Project 09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooschool-my.sharepoint.com/personal/thuong_vo_bambooschool_edu_vn/Documents/2024 - 2025/2. CHUYÊN MÔN/MOS 2019/MOS Excel 2019/Project 9 MOS Excel 2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Excel2019_Project4_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{F0C14A95-AC11-432C-85F4-1B8ADAD9B4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20BE242-367F-44C0-ADB1-BABF3EEEAB47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829D471F-E3D4-47C6-A9ED-A4802147E263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="23" r:id="rId1"/>
@@ -1029,6 +1029,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,10 +1045,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Accent5" xfId="9" builtinId="45"/>
@@ -1188,13 +1188,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.08</c:v>
@@ -1318,7 +1318,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Prices!$D$2</c15:sqref>
@@ -1345,7 +1345,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Prices!$A$3:$A$6</c15:sqref>
@@ -1371,7 +1371,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Prices!$D$3:$D$6</c15:sqref>
@@ -1396,7 +1396,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-F295-4ACC-B0B5-70B4E2569A86}"/>
                   </c:ext>
@@ -3227,7 +3227,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8F1BDCBF-9EAB-4776-9172-52021C797938}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7331,7 +7331,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8636000" cy="6257636"/>
+    <xdr:ext cx="8660694" cy="6279444"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7938,36 +7938,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6796875" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" customWidth="1"/>
-    <col min="4" max="4" width="10.6796875" customWidth="1"/>
-    <col min="5" max="5" width="19.31640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.31640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.08984375" customWidth="1"/>
-    <col min="11" max="11" width="9.6796875" customWidth="1"/>
-    <col min="12" max="12" width="11.76953125" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
     <col min="13" max="13" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>10</v>
       </c>
@@ -7990,20 +7990,20 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="53">
+      <c r="L2" s="49">
         <v>0.08</v>
       </c>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="42">
         <v>9597</v>
       </c>
-      <c r="C3" s="54">
-        <v>0.06</v>
+      <c r="C3" s="50">
+        <v>0.23</v>
       </c>
       <c r="D3" s="42">
         <v>4920</v>
@@ -8017,14 +8017,14 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>5497</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="51">
         <v>0.03</v>
       </c>
       <c r="D4" s="1">
@@ -8039,15 +8039,15 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="42">
         <v>4996</v>
       </c>
-      <c r="C5" s="54">
-        <v>0.02</v>
+      <c r="C5" s="50">
+        <v>0.16</v>
       </c>
       <c r="D5" s="42">
         <v>4158</v>
@@ -8061,14 +8061,14 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="47">
         <v>2410</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="52">
         <v>0.08</v>
       </c>
       <c r="D6" s="47">
@@ -8101,21 +8101,21 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.31640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.31640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.76953125" customWidth="1"/>
-    <col min="6" max="6" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6328125" customWidth="1"/>
-    <col min="11" max="11" width="10.2265625" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
     <col min="12" max="12" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>43763</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>43794</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>43824</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>43855</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>43886</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>43915</v>
       </c>
@@ -8319,11 +8319,11 @@
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="G7" s="4">
-        <f>IF(C7="-",(B7-D7)*F8,IF(C7="+",B7*F8,B7*F8))</f>
+        <f t="shared" ref="G7:G31" si="3">IF(C7="-",(B7-D7)*F8,IF(C7="+",B7*F8,B7*F8))</f>
         <v>202729.9715744222</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" ref="H7:H31" si="3">(B7+C7+G7)-D7</f>
+        <f t="shared" ref="H7:H31" si="4">(B7+C7+G7)-D7</f>
         <v>50885222.865179978</v>
       </c>
       <c r="K7">
@@ -8333,7 +8333,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>43946</v>
       </c>
@@ -8349,11 +8349,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G8" s="4">
-        <f>IF(C8="-",(B8-D8)*F9,IF(C8="+",B8*F9,B8*F9))</f>
+        <f t="shared" si="3"/>
         <v>233223.93813207489</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51118446.803312056</v>
       </c>
       <c r="K8">
@@ -8363,7 +8363,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>43976</v>
       </c>
@@ -8379,11 +8379,11 @@
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="G9" s="4">
-        <f>IF(C9="-",(B9-D9)*F10,IF(C9="+",B9*F10,B9*F10))</f>
+        <f t="shared" si="3"/>
         <v>234292.88118184693</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51352739.684493899</v>
       </c>
       <c r="K9">
@@ -8393,7 +8393,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>44007</v>
       </c>
@@ -8409,11 +8409,11 @@
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="G10" s="4">
-        <f>IF(C10="-",(B10-D10)*F11,IF(C10="+",B10*F11,B10*F11))</f>
+        <f t="shared" si="3"/>
         <v>235366.72355393038</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51588106.408047833</v>
       </c>
       <c r="K10">
@@ -8423,7 +8423,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>44037</v>
       </c>
@@ -8439,11 +8439,11 @@
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="G11" s="4">
-        <f>IF(C11="-",(B11-D11)*F12,IF(C11="+",B11*F12,B11*F12))</f>
+        <f t="shared" si="3"/>
         <v>227847.46996887794</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51815953.87801671</v>
       </c>
       <c r="K11">
@@ -8453,7 +8453,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>44068</v>
       </c>
@@ -8469,15 +8469,15 @@
         <v>4.4166666666666668E-3</v>
       </c>
       <c r="G12" s="4">
-        <f>IF(C12="-",(B12-D12)*F13,IF(C12="+",B12*F13,B12*F13))</f>
+        <f t="shared" si="3"/>
         <v>228853.79629457381</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52044807.674311288</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>44099</v>
       </c>
@@ -8493,15 +8493,15 @@
         <v>4.4166666666666668E-3</v>
       </c>
       <c r="G13" s="4">
-        <f>IF(C13="-",(B13-D13)*F14,IF(C13="+",B13*F14,B13*F14))</f>
+        <f t="shared" si="3"/>
         <v>229864.56722820821</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52274672.241539493</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>44129</v>
       </c>
@@ -8517,15 +8517,15 @@
         <v>4.4166666666666668E-3</v>
       </c>
       <c r="G14" s="4">
-        <f>IF(C14="-",(B14-D14)*F15,IF(C14="+",B14*F15,B14*F15))</f>
+        <f t="shared" si="3"/>
         <v>296223.14270205714</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52570895.384241551</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>44160</v>
       </c>
@@ -8541,15 +8541,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G15" s="4">
-        <f>IF(C15="-",(B15-D15)*F16,IF(C15="+",B15*F16,B15*F16))</f>
+        <f t="shared" si="3"/>
         <v>297901.74051070213</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52868797.124752253</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>44190</v>
       </c>
@@ -8565,15 +8565,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G16" s="4">
-        <f>IF(C16="-",(B16-D16)*F17,IF(C16="+",B16*F17,B16*F17))</f>
+        <f t="shared" si="3"/>
         <v>299589.85037359613</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53168386.975125849</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>44221</v>
       </c>
@@ -8589,15 +8589,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G17" s="4">
-        <f>IF(C17="-",(B17-D17)*F18,IF(C17="+",B17*F18,B17*F18))</f>
+        <f t="shared" si="3"/>
         <v>301287.52619237982</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53469674.501318231</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>44252</v>
       </c>
@@ -8613,15 +8613,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G18" s="4">
-        <f>IF(C18="-",(B18-D18)*F19,IF(C18="+",B18*F19,B18*F19))</f>
+        <f t="shared" si="3"/>
         <v>302994.82217413664</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53772669.323492371</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>44280</v>
       </c>
@@ -8637,15 +8637,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G19" s="4">
-        <f>IF(C19="-",(B19-D19)*F20,IF(C19="+",B19*F20,B19*F20))</f>
+        <f t="shared" si="3"/>
         <v>304711.79283312347</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54077381.116325498</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>44311</v>
       </c>
@@ -8661,15 +8661,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G20" s="4">
-        <f>IF(C20="-",(B20-D20)*F21,IF(C20="+",B20*F21,B20*F21))</f>
+        <f t="shared" si="3"/>
         <v>306438.49299251119</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54383819.609318011</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>44341</v>
       </c>
@@ -8685,15 +8685,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G21" s="4">
-        <f>IF(C21="-",(B21-D21)*F22,IF(C21="+",B21*F22,B21*F22))</f>
+        <f t="shared" si="3"/>
         <v>308174.97778613539</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54691994.587104149</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>44372</v>
       </c>
@@ -8709,15 +8709,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G22" s="4">
-        <f>IF(C22="-",(B22-D22)*F23,IF(C22="+",B22*F23,B22*F23))</f>
+        <f t="shared" si="3"/>
         <v>309921.30266025686</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55001915.889764406</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>44402</v>
       </c>
@@ -8733,15 +8733,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G23" s="4">
-        <f>IF(C23="-",(B23-D23)*F24,IF(C23="+",B23*F24,B23*F24))</f>
+        <f t="shared" si="3"/>
         <v>311677.52337533166</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55313593.413139738</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>44433</v>
       </c>
@@ -8757,15 +8757,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G24" s="4">
-        <f>IF(C24="-",(B24-D24)*F25,IF(C24="+",B24*F25,B24*F25))</f>
+        <f t="shared" si="3"/>
         <v>313443.69600779185</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55627037.109147526</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>44464</v>
       </c>
@@ -8781,15 +8781,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G25" s="4">
-        <f>IF(C25="-",(B25-D25)*F26,IF(C25="+",B25*F26,B25*F26))</f>
+        <f t="shared" si="3"/>
         <v>315219.87695183599</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55942256.986099362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>44494</v>
       </c>
@@ -8805,15 +8805,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G26" s="4">
-        <f>IF(C26="-",(B26-D26)*F27,IF(C26="+",B26*F27,B26*F27))</f>
+        <f t="shared" si="3"/>
         <v>317006.12292122975</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56259263.109020591</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>44525</v>
       </c>
@@ -8829,15 +8829,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G27" s="4">
-        <f>IF(C27="-",(B27-D27)*F28,IF(C27="+",B27*F28,B27*F28))</f>
+        <f t="shared" si="3"/>
         <v>318802.49095111672</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56578065.599971704</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>44555</v>
       </c>
@@ -8853,15 +8853,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G28" s="4">
-        <f>IF(C28="-",(B28-D28)*F29,IF(C28="+",B28*F29,B28*F29))</f>
+        <f t="shared" si="3"/>
         <v>320609.03839983966</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56898674.638371542</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>44586</v>
       </c>
@@ -8877,15 +8877,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G29" s="4">
-        <f>IF(C29="-",(B29-D29)*F30,IF(C29="+",B29*F30,B29*F30))</f>
+        <f t="shared" si="3"/>
         <v>322425.82295077207</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57221100.461322315</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>44617</v>
       </c>
@@ -8901,15 +8901,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G30" s="4">
-        <f>IF(C30="-",(B30-D30)*F31,IF(C30="+",B30*F31,B30*F31))</f>
+        <f t="shared" si="3"/>
         <v>324252.9026141598</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57545353.363936476</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>44645</v>
       </c>
@@ -8925,15 +8925,15 @@
         <v>5.6666666666666671E-3</v>
       </c>
       <c r="G31" s="4">
-        <f>IF(C31="-",(B31-D31)*F32,IF(C31="+",B31*F32,B31*F32))</f>
+        <f t="shared" si="3"/>
         <v>326090.33572897338</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57871443.69966545</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E32" s="7"/>
       <c r="F32" s="8">
         <f>IF((A31-$A$2)*12/365=0,0,VLOOKUP((A31-$A$2)*12/365,Rates[],2,TRUE)/12)</f>
@@ -8980,97 +8980,97 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="12.2265625" customWidth="1"/>
-    <col min="7" max="7" width="13.76953125" customWidth="1"/>
-    <col min="8" max="8" width="12.2265625" customWidth="1"/>
-    <col min="9" max="9" width="3.31640625" customWidth="1"/>
-    <col min="10" max="10" width="14.76953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="3.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -9305,7 +9305,7 @@
       </c>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -9973,23 +9973,23 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="12.2265625" customWidth="1"/>
-    <col min="5" max="5" width="13.76953125" customWidth="1"/>
-    <col min="6" max="6" width="12.2265625" customWidth="1"/>
-    <col min="7" max="7" width="3.31640625" customWidth="1"/>
+    <col min="1" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="3.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -10010,7 +10010,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -10094,7 +10094,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -10136,7 +10136,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -10283,7 +10283,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -10346,7 +10346,7 @@
       </c>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -10388,7 +10388,7 @@
       </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -10598,7 +10598,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -10680,26 +10680,26 @@
       <selection activeCell="A28" sqref="A28:E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.31640625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.54296875" customWidth="1"/>
     <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="7.31640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6796875" customWidth="1"/>
-    <col min="9" max="9" width="19.31640625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1"/>
     <col min="11" max="11" width="20.54296875" customWidth="1"/>
     <col min="12" max="12" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.75" x14ac:dyDescent="0.95">
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>83</v>
       </c>
@@ -10721,12 +10721,12 @@
       <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="51"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="L3" s="55"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="19" t="s">
         <v>86</v>
@@ -10753,7 +10753,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="19" t="s">
         <v>88</v>
@@ -10777,7 +10777,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="19" t="s">
         <v>89</v>
@@ -10801,7 +10801,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
         <v>90</v>
@@ -10825,7 +10825,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="21" t="s">
         <v>87</v>
@@ -10854,7 +10854,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>91</v>
       </c>
@@ -10867,7 +10867,7 @@
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
         <v>92</v>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
         <v>93</v>
@@ -10914,7 +10914,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="19" t="s">
         <v>94</v>
@@ -10935,7 +10935,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="19" t="s">
         <v>95</v>
@@ -10956,7 +10956,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="21" t="s">
         <v>96</v>
@@ -10982,7 +10982,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>97</v>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
         <v>92</v>
@@ -11014,7 +11014,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="19" t="s">
         <v>93</v>
@@ -11035,7 +11035,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="19" t="s">
         <v>94</v>
@@ -11056,7 +11056,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="19" t="s">
         <v>95</v>
@@ -11077,7 +11077,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="21" t="s">
         <v>98</v>
@@ -11103,17 +11103,17 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.5" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A24" s="52" t="s">
+    <row r="24" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.75"/>
-    <row r="26" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="22" t="s">
         <v>100</v>
       </c>
@@ -11122,8 +11122,8 @@
       <c r="D26" s="23"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.75"/>
-    <row r="28" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25" t="s">
         <v>101</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>108</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>5343020854</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>110</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>6.2350148631414992</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>112</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>-0.94439208990292078</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>133360250</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
         <v>115</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>1071261156</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
         <v>116</v>
       </c>
